--- a/Windows-Tools/table/test.xlsx
+++ b/Windows-Tools/table/test.xlsx
@@ -57,10 +57,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -71,6 +71,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -79,7 +95,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -87,6 +103,59 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -101,32 +170,16 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,21 +194,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,51 +208,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -224,187 +224,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,30 +415,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -460,17 +436,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,6 +468,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,11 +509,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,145 +523,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -988,13 +988,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
     <col min="2" max="2" width="38.75" customWidth="1"/>
@@ -1058,6 +1058,555 @@
         <v>100</v>
       </c>
     </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112">
+        <v>109</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
